--- a/PopupApp/bin/Debug/Кварталы.xlsx
+++ b/PopupApp/bin/Debug/Кварталы.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Наименование</t>
   </si>
   <si>
+    <t>Номер договора</t>
+  </si>
+  <si>
     <t>Местоположение</t>
   </si>
   <si>
@@ -32,25 +35,31 @@
     <t>Контрагент</t>
   </si>
   <si>
+    <t>Услуга</t>
+  </si>
+  <si>
     <t>Стоимость</t>
   </si>
   <si>
     <t>Статус</t>
   </si>
   <si>
-    <t>Квартал 1</t>
-  </si>
-  <si>
-    <t>Test3</t>
+    <t>Квартал 2</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>3123123</t>
   </si>
   <si>
     <t>Москва</t>
   </si>
   <si>
-    <t>02.01.2023</t>
-  </si>
-  <si>
-    <t>30.05.2023</t>
+    <t>23.05.2023</t>
+  </si>
+  <si>
+    <t>31.05.2023</t>
   </si>
   <si>
     <t>Входящий</t>
@@ -59,37 +68,13 @@
     <t>Иванов И.И.</t>
   </si>
   <si>
+    <t>Проектирование</t>
+  </si>
+  <si>
     <t>25000</t>
   </si>
   <si>
     <t>Открыт</t>
-  </si>
-  <si>
-    <t>Квартал 3</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Мытищи</t>
-  </si>
-  <si>
-    <t>02.07.2023</t>
-  </si>
-  <si>
-    <t>30.07.2023</t>
-  </si>
-  <si>
-    <t>Исходящий</t>
-  </si>
-  <si>
-    <t>Сергеевич С.С.</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>Закрыт</t>
   </si>
 </sst>
 </file>
@@ -135,7 +120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -166,73 +151,53 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
